--- a/Customer Details.xlsx
+++ b/Customer Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayank Tiwari\Documents\UiPath\UiPath RPA - Level 2 - Udemy\ExcelCustomersToWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E43105-92BF-439F-AC33-F3C4E3645018}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB96DF-753C-483E-B490-C8C6BEAD575A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6D0A444-7708-4C2C-97B2-19C0A22FA6ED}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>First Name</t>
   </si>
@@ -69,7 +69,25 @@
     <t>LastName3</t>
   </si>
   <si>
-    <t>email3@serviceProvider3.com</t>
+    <t>FirstName4</t>
+  </si>
+  <si>
+    <t>LastName4</t>
+  </si>
+  <si>
+    <t>email4@serviceProvider4.com</t>
+  </si>
+  <si>
+    <t>FirstName5</t>
+  </si>
+  <si>
+    <t>LastName5</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>email5@serviceProvider5.com</t>
   </si>
 </sst>
 </file>
@@ -441,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB845854-3883-48E7-A517-7D18C8DB6BEE}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,8 +471,7 @@
     <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.28515625" style="1"/>
+    <col min="5" max="16384" width="11.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,10 +524,36 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -518,9 +561,10 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Customer Details.xlsx
+++ b/Customer Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayank Tiwari\Documents\UiPath\UiPath RPA - Level 2 - Udemy\ExcelCustomersToWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDB96DF-753C-483E-B490-C8C6BEAD575A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCEB1B1-80AA-4E67-BD9E-2667628AACD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A6D0A444-7708-4C2C-97B2-19C0A22FA6ED}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>First Name</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>LastName5</t>
-  </si>
-  <si>
-    <t>$</t>
   </si>
   <si>
     <t>email5@serviceProvider5.com</t>
@@ -462,7 +459,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,11 +546,11 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
